--- a/Data y gráficos/PCA/Data 2PCA IF new.xlsx
+++ b/Data y gráficos/PCA/Data 2PCA IF new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_28E5974F9576248E6E38F4F7495DCE3A87477C84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_28E5974F9576248E6E38F4F7495DCE3A87477C84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFB1C64-4BE3-4E08-B070-D8DBF9382C3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -420,10 +420,16 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
